--- a/Writings/Some calculations.xlsx
+++ b/Writings/Some calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krist\Desktop\Kristian\Privat\Ansøgninger\Udveksling\University College London\Being there\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7045EBA7-9DE8-4F66-9440-CC73E0A469A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1687E7EC-42A5-4169-9FA5-9195719BA115}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="7" xr2:uid="{5B17B8CB-38FB-437D-A3FF-95F205F5FE9A}"/>
+    <workbookView xWindow="5535" yWindow="1965" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="5" xr2:uid="{5B17B8CB-38FB-437D-A3FF-95F205F5FE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor clouds" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="1444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="1450">
   <si>
     <t>Inner London</t>
   </si>
@@ -4322,9 +4322,6 @@
     <t xml:space="preserve">Figure </t>
   </si>
   <si>
-    <t>The initial curriculum used to facilitate improved navigation of the robot.</t>
-  </si>
-  <si>
     <t>The ground object</t>
   </si>
   <si>
@@ -4352,9 +4349,6 @@
     <t>Table 3 - Population densities, London.</t>
   </si>
   <si>
-    <t>The crowded area prefab</t>
-  </si>
-  <si>
     <t>Population Density, Boroughs</t>
   </si>
   <si>
@@ -4461,6 +4455,30 @@
   </si>
   <si>
     <t>Number of Steps Within Each Episode - 2.0</t>
+  </si>
+  <si>
+    <t>Learning the difficult areas</t>
+  </si>
+  <si>
+    <t>Internal Concurrent Training</t>
+  </si>
+  <si>
+    <t>Training Hyperparameters</t>
+  </si>
+  <si>
+    <t>An example of a curriculum</t>
+  </si>
+  <si>
+    <t>The Effect of Observation Stacking</t>
+  </si>
+  <si>
+    <t>Pedestrian collisions</t>
+  </si>
+  <si>
+    <t>Shared Experience</t>
+  </si>
+  <si>
+    <t>The Effect of Parallelisation</t>
   </si>
 </sst>
 </file>
@@ -7589,7 +7607,7 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="AF5" s="90" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AG5" s="91"/>
     </row>
@@ -44636,14 +44654,14 @@
         <v>15.587999999999999</v>
       </c>
       <c r="N4" s="57" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="O4" s="52"/>
       <c r="P4" s="52" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Q4" s="53" t="s">
         <v>1404</v>
-      </c>
-      <c r="Q4" s="53" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -44756,14 +44774,14 @@
         <v>9.32</v>
       </c>
       <c r="N7" s="74" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="O7" s="75"/>
       <c r="P7" s="75">
         <v>1.3</v>
       </c>
       <c r="Q7" s="76" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -44804,7 +44822,7 @@
         <v>3.1415927164216466</v>
       </c>
       <c r="Q8" s="79" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -44903,7 +44921,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C17">
         <v>1.3</v>
@@ -45021,8 +45039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B7EA88-C16F-4128-8BA6-0970A7E559A4}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45032,13 +45050,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C1" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -45050,7 +45068,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -45065,7 +45083,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -45080,7 +45098,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D4">
         <v>21</v>
@@ -45095,7 +45113,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="D5">
         <v>23</v>
@@ -45140,10 +45158,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45155,10 +45173,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45170,10 +45188,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45185,10 +45203,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45200,7 +45218,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="D12">
         <v>37</v>
@@ -45224,10 +45242,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L13">
         <f>1+M13</f>
@@ -45247,10 +45265,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>1397</v>
+        <v>1444</v>
       </c>
       <c r="D14">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45261,8 +45279,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C15" s="72" t="s">
-        <v>1394</v>
+      <c r="C15" s="71" t="s">
+        <v>1445</v>
       </c>
       <c r="D15">
         <v>47</v>
@@ -45276,11 +45294,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C16" s="71" t="s">
-        <v>1395</v>
+      <c r="C16" s="72" t="s">
+        <v>1394</v>
       </c>
       <c r="D16">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -45292,7 +45310,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>1438</v>
+        <v>1395</v>
       </c>
       <c r="D17">
         <v>50</v>
@@ -45307,10 +45325,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -45322,10 +45340,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="D19">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -45337,10 +45355,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>1399</v>
+        <v>1443</v>
       </c>
       <c r="D20">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -45352,7 +45370,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>1407</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -45364,10 +45382,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>1413</v>
+        <v>1446</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -45379,10 +45397,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="D23">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -45394,13 +45412,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="D24">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1391</v>
       </c>
@@ -45408,8 +45426,14 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="71" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1391</v>
       </c>
@@ -45417,8 +45441,14 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="71" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D26">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1391</v>
       </c>
@@ -45426,14 +45456,26 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="71" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D27">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1391</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
         <v>27</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D28">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -45686,35 +45728,35 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C1" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B2">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -45722,70 +45764,79 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B3">
         <f>ROW()-1</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B4">
         <f>ROW()-1</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B32" si="0">ROW()-1</f>
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D5">
-        <v>58</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D6">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D7">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -45794,7 +45845,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -45803,7 +45854,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -45812,7 +45863,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -45821,7 +45872,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -45830,7 +45881,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -45839,7 +45890,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -45848,7 +45899,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -45857,7 +45908,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -45866,7 +45917,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -45875,7 +45926,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -45884,7 +45935,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -45893,7 +45944,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -45902,7 +45953,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -45911,7 +45962,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -45920,7 +45971,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -45929,7 +45980,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -45938,7 +45989,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -45947,7 +45998,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -45956,7 +46007,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -45965,7 +46016,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -45974,7 +46025,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -45983,7 +46034,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -45992,7 +46043,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -46001,7 +46052,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -46015,10 +46066,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CD815C-832D-4B4E-B220-499964C0AB30}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46026,9 +46077,9 @@
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B1">
         <v>6900</v>
@@ -46045,10 +46096,16 @@
       <c r="F1">
         <v>12511</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <v>13386</v>
+      </c>
+      <c r="H1">
+        <v>13542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B2">
         <v>70</v>
@@ -46065,10 +46122,16 @@
       <c r="F2">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>70</v>
+      </c>
+      <c r="H2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B3">
         <v>145</v>
@@ -46085,10 +46148,23 @@
       <c r="F3">
         <v>253</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>260</v>
+      </c>
+      <c r="H3">
+        <v>272</v>
+      </c>
+      <c r="N3">
+        <f>500000-240000</f>
+        <v>260000</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -46105,10 +46181,16 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -46125,10 +46207,20 @@
       <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f>N3/O3</f>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -46145,10 +46237,16 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -46159,10 +46257,16 @@
       <c r="F7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -46179,10 +46283,16 @@
       <c r="F8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B9">
         <v>48</v>
@@ -46199,10 +46309,16 @@
       <c r="F9">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="D10">
         <v>253</v>
@@ -46213,10 +46329,22 @@
       <c r="F10">
         <v>244</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>284</v>
+      </c>
+      <c r="H10">
+        <v>284</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B11">
         <v>126</v>
@@ -46233,10 +46361,22 @@
       <c r="F11">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>126</v>
+      </c>
+      <c r="H11">
+        <v>126</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B12">
         <v>178</v>
@@ -46253,10 +46393,22 @@
       <c r="F12">
         <v>1947</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1950</v>
+      </c>
+      <c r="H12">
+        <v>1950</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B13">
         <v>184</v>
@@ -46273,30 +46425,1112 @@
       <c r="F13">
         <v>165</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>165</v>
+      </c>
+      <c r="H13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1358</v>
       </c>
       <c r="B15">
-        <f>B1-SUM(B2:B13)</f>
+        <f t="shared" ref="B15:G15" si="0">B1-SUM(B2:B13)</f>
         <v>6139</v>
       </c>
       <c r="C15">
-        <f>C1-SUM(C2:C13)</f>
+        <f t="shared" si="0"/>
         <v>10557</v>
       </c>
       <c r="D15">
-        <f>D1-SUM(D2:D13)</f>
+        <f t="shared" si="0"/>
         <v>10187</v>
       </c>
       <c r="E15">
-        <f>E1-SUM(E2:E13)</f>
+        <f t="shared" si="0"/>
         <v>9182</v>
       </c>
       <c r="F15">
-        <f>F1-SUM(F2:F13)</f>
+        <f t="shared" si="0"/>
         <v>9645</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>10470</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15" si="1">H1-SUM(H2:H13)</f>
+        <v>10607</v>
+      </c>
+      <c r="J15">
+        <f>+(MAX(0,MIN(1,($J$10-K15)/$J$11)))*$J$12</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>200</v>
+      </c>
+      <c r="N15">
+        <f>1/(1+O15)</f>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>1/(1+P15)</f>
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <f>1/(EXP(Q15))</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="S15" t="e">
+        <f>1/LOG(1+P15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" ref="J16:J35" si="2">+(MAX(0,MIN(1,($J$10-K16)/$J$11)))*$J$12</f>
+        <v>0.02</v>
+      </c>
+      <c r="K16">
+        <v>190</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16:N27" si="3">1/(1+O16)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16:Q74" si="4">1/(1+P16)</f>
+        <v>0.5</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ref="S16:S74" si="5">1/LOG(1+P16)</f>
+        <v>3.3219280948873622</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="K17">
+        <v>180</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="5"/>
+        <v>2.0959032742893848</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>3500</v>
+      </c>
+      <c r="F18">
+        <v>5000</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="K18">
+        <v>170</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="5"/>
+        <v>1.6609640474436811</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f>J10/E18</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="F19">
+        <f>200/F18</f>
+        <v>0.04</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="K19">
+        <v>160</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>1.4306765580733929</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="K20">
+        <v>150</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="O20">
+        <v>25</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
+        <v>1.2850972089384687</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f>0.05*80</f>
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="K21">
+        <v>140</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="O21">
+        <v>30</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>1.1832946624549383</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K22">
+        <v>130</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="O22">
+        <v>35</v>
+      </c>
+      <c r="P22">
+        <v>7</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="5"/>
+        <v>1.1073093649624541</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="K23">
+        <v>120</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="O23">
+        <v>40</v>
+      </c>
+      <c r="P23">
+        <v>8</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="5"/>
+        <v>1.0479516371446924</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+      <c r="K24">
+        <v>110</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="O24">
+        <v>45</v>
+      </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>D25-E25</f>
+        <v>394</v>
+      </c>
+      <c r="D25">
+        <v>9277</v>
+      </c>
+      <c r="E25">
+        <v>8883</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="O25">
+        <v>50</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="5"/>
+        <v>0.96025256778912738</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>C25/60</f>
+        <v>6.5666666666666664</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0.22</v>
+      </c>
+      <c r="K26">
+        <v>90</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="O26">
+        <v>55</v>
+      </c>
+      <c r="P26">
+        <v>11</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>0.92662840802912672</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>+C26*4</f>
+        <v>26.266666666666666</v>
+      </c>
+      <c r="D27">
+        <f>D25+C25*4</f>
+        <v>10853</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="K27">
+        <v>80</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>1.6393442622950821E-2</v>
+      </c>
+      <c r="O27">
+        <v>60</v>
+      </c>
+      <c r="P27">
+        <v>12</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="5"/>
+        <v>0.89771171750262313</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>D27/60</f>
+        <v>180.88333333333333</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>0.26</v>
+      </c>
+      <c r="K28">
+        <v>70</v>
+      </c>
+      <c r="P28">
+        <v>13</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="5"/>
+        <v>0.8725028695491559</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>D28/60</f>
+        <v>3.0147222222222223</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K29">
+        <v>60</v>
+      </c>
+      <c r="P29">
+        <v>14</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="5"/>
+        <v>0.85027415372760251</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="K30">
+        <v>50</v>
+      </c>
+      <c r="P30">
+        <v>15</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="5"/>
+        <v>0.83048202372184055</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="K31">
+        <v>40</v>
+      </c>
+      <c r="P31">
+        <v>16</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="5"/>
+        <v>0.81271150929195901</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>0.34</v>
+      </c>
+      <c r="K32">
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <v>17</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="5"/>
+        <v>0.79663977019691223</v>
+      </c>
+    </row>
+    <row r="33" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>0.36</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+      <c r="P33">
+        <v>18</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="5"/>
+        <v>0.78201148309954072</v>
+      </c>
+    </row>
+    <row r="34" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>0.38</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <v>19</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="5"/>
+        <v>0.76862178684024074</v>
+      </c>
+    </row>
+    <row r="35" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>20</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="4"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="5"/>
+        <v>0.75630419551640105</v>
+      </c>
+    </row>
+    <row r="36" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>21</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="4"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="5"/>
+        <v>0.74492185977334702</v>
+      </c>
+    </row>
+    <row r="37" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>22</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="5"/>
+        <v>0.73436113557355565</v>
+      </c>
+    </row>
+    <row r="38" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>23</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="5"/>
+        <v>0.72452677516225394</v>
+      </c>
+    </row>
+    <row r="39" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>24</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="5"/>
+        <v>0.71533827903669644</v>
+      </c>
+    </row>
+    <row r="40" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>25</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="4"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="5"/>
+        <v>0.70672709237532838</v>
+      </c>
+    </row>
+    <row r="41" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>26</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="5"/>
+        <v>0.6986344247631282</v>
+      </c>
+    </row>
+    <row r="42" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>27</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="4"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="5"/>
+        <v>0.6910095361682882</v>
+      </c>
+    </row>
+    <row r="43" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>28</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="4"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="5"/>
+        <v>0.68380837599388911</v>
+      </c>
+    </row>
+    <row r="44" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>29</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="5"/>
+        <v>0.67699249252884552</v>
+      </c>
+    </row>
+    <row r="45" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>30</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="4"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="5"/>
+        <v>0.67052815164442925</v>
+      </c>
+    </row>
+    <row r="46" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>31</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="4"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="5"/>
+        <v>0.66438561897747239</v>
+      </c>
+    </row>
+    <row r="47" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>32</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="4"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="5"/>
+        <v>0.65853857099291147</v>
+      </c>
+    </row>
+    <row r="48" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>33</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="4"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="5"/>
+        <v>0.65296360849113078</v>
+      </c>
+    </row>
+    <row r="49" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>34</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="4"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="5"/>
+        <v>0.64763985218072906</v>
+      </c>
+    </row>
+    <row r="50" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>35</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="4"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="5"/>
+        <v>0.64254860446923434</v>
+      </c>
+    </row>
+    <row r="51" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <v>36</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="4"/>
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="5"/>
+        <v>0.63767306504840893</v>
+      </c>
+    </row>
+    <row r="52" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P52">
+        <v>37</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="4"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="5"/>
+        <v>0.63299809046096744</v>
+      </c>
+    </row>
+    <row r="53" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>38</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="4"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="5"/>
+        <v>0.62850998984188011</v>
+      </c>
+    </row>
+    <row r="54" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>39</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="5"/>
+        <v>0.62419635058178491</v>
+      </c>
+    </row>
+    <row r="55" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>40</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="4"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="5"/>
+        <v>0.62004588887311562</v>
+      </c>
+    </row>
+    <row r="56" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>41</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="4"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="5"/>
+        <v>0.61604832105293827</v>
+      </c>
+    </row>
+    <row r="57" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>42</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="4"/>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="5"/>
+        <v>0.61219425241069658</v>
+      </c>
+    </row>
+    <row r="58" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>43</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="5"/>
+        <v>0.60847508072947221</v>
+      </c>
+    </row>
+    <row r="59" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>44</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="4"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="5"/>
+        <v>0.60488291231014157</v>
+      </c>
+    </row>
+    <row r="60" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>45</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="4"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="5"/>
+        <v>0.60141048861497992</v>
+      </c>
+    </row>
+    <row r="61" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>46</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="4"/>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="5"/>
+        <v>0.59805112198071142</v>
+      </c>
+    </row>
+    <row r="62" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>47</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="4"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="5"/>
+        <v>0.59479863910606734</v>
+      </c>
+    </row>
+    <row r="63" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>48</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="4"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="5"/>
+        <v>0.59164733122746915</v>
+      </c>
+    </row>
+    <row r="64" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>49</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="5"/>
+        <v>0.588591910067779</v>
+      </c>
+    </row>
+    <row r="65" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>50</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="4"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="5"/>
+        <v>0.58562746878441962</v>
+      </c>
+    </row>
+    <row r="66" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <v>51</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="4"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="5"/>
+        <v>0.58274944726029654</v>
+      </c>
+    </row>
+    <row r="67" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>52</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="4"/>
+        <v>1.8867924528301886E-2</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="5"/>
+        <v>0.579953601178403</v>
+      </c>
+    </row>
+    <row r="68" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>53</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="4"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="5"/>
+        <v>0.57723597440237195</v>
+      </c>
+    </row>
+    <row r="69" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>54</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="4"/>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="5"/>
+        <v>0.57459287425347172</v>
+      </c>
+    </row>
+    <row r="70" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>55</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="4"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="5"/>
+        <v>0.57202084933193131</v>
+      </c>
+    </row>
+    <row r="71" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <v>56</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="4"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="5"/>
+        <v>0.56951666957894043</v>
+      </c>
+    </row>
+    <row r="72" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P72">
+        <v>57</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="4"/>
+        <v>1.7241379310344827E-2</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="5"/>
+        <v>0.567077308316706</v>
+      </c>
+    </row>
+    <row r="73" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <v>58</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="4"/>
+        <v>1.6949152542372881E-2</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="5"/>
+        <v>0.56469992603881181</v>
+      </c>
+    </row>
+    <row r="74" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <v>59</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="5"/>
+        <v>0.56238185575284771</v>
       </c>
     </row>
   </sheetData>

--- a/Writings/Some calculations.xlsx
+++ b/Writings/Some calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krist\Desktop\Kristian\Privat\Ansøgninger\Udveksling\University College London\Being there\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1687E7EC-42A5-4169-9FA5-9195719BA115}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390D5011-A5A6-4014-A44D-091E77E16B1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="1965" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="5" xr2:uid="{5B17B8CB-38FB-437D-A3FF-95F205F5FE9A}"/>
+    <workbookView xWindow="5655" yWindow="2010" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="7" xr2:uid="{5B17B8CB-38FB-437D-A3FF-95F205F5FE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor clouds" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1449">
   <si>
     <t>Inner London</t>
   </si>
@@ -4409,12 +4409,6 @@
     <t>Markov Decision Process</t>
   </si>
   <si>
-    <t>SARSA Algorithm</t>
-  </si>
-  <si>
-    <t>Policy Network</t>
-  </si>
-  <si>
     <t>PPO Algorithm</t>
   </si>
   <si>
@@ -4466,9 +4460,6 @@
     <t>Training Hyperparameters</t>
   </si>
   <si>
-    <t>An example of a curriculum</t>
-  </si>
-  <si>
     <t>The Effect of Observation Stacking</t>
   </si>
   <si>
@@ -4479,6 +4470,12 @@
   </si>
   <si>
     <t>The Effect of Parallelisation</t>
+  </si>
+  <si>
+    <t>Q-learning Algorithm</t>
+  </si>
+  <si>
+    <t>The curriculum of this study</t>
   </si>
 </sst>
 </file>
@@ -45039,8 +45036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B7EA88-C16F-4128-8BA6-0970A7E559A4}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45083,13 +45080,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>1426</v>
+        <v>1447</v>
       </c>
       <c r="D3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1391</v>
       </c>
@@ -45097,14 +45094,14 @@
         <f>ROW()-1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>1427</v>
+      <c r="C4" s="71" t="s">
+        <v>1392</v>
       </c>
       <c r="D4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1391</v>
       </c>
@@ -45112,11 +45109,11 @@
         <f>ROW()-1</f>
         <v>4</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>1428</v>
+      <c r="C5" s="71" t="s">
+        <v>1406</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45128,10 +45125,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>1392</v>
+        <v>1407</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45142,11 +45139,11 @@
         <f t="shared" ref="B7:B22" si="0">ROW()-1</f>
         <v>6</v>
       </c>
-      <c r="C7" s="71" t="s">
-        <v>1393</v>
+      <c r="C7" s="72" t="s">
+        <v>1394</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45158,10 +45155,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45173,10 +45170,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>1406</v>
+        <v>1448</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45188,10 +45185,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>1407</v>
+        <v>1434</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45203,10 +45200,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>1409</v>
+        <v>1435</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45218,10 +45215,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>1410</v>
+        <v>1441</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -45242,10 +45239,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>1408</v>
+        <v>1445</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L13">
         <f>1+M13</f>
@@ -45265,10 +45262,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45280,10 +45277,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D15">
-        <v>47</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -45294,14 +45288,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C16" s="72" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D16">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="71" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1391</v>
       </c>
@@ -45310,13 +45301,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1391</v>
       </c>
@@ -45325,13 +45313,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D18">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1391</v>
       </c>
@@ -45340,13 +45325,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D19">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1391</v>
       </c>
@@ -45355,13 +45337,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D20">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1391</v>
       </c>
@@ -45370,10 +45349,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1391</v>
       </c>
@@ -45382,13 +45361,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D22">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1391</v>
       </c>
@@ -45396,14 +45372,11 @@
         <f t="shared" ref="B23:B55" si="1">ROW()-1</f>
         <v>22</v>
       </c>
-      <c r="C23" s="71" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D23">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="83" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1391</v>
       </c>
@@ -45412,13 +45385,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D24">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1391</v>
       </c>
@@ -45427,13 +45397,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="71" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D25">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1391</v>
       </c>
@@ -45442,13 +45409,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="71" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D26">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1391</v>
       </c>
@@ -45457,13 +45421,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="71" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D27">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1391</v>
       </c>
@@ -45471,14 +45432,8 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C28" s="71" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D28">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1391</v>
       </c>
@@ -45487,7 +45442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1391</v>
       </c>
@@ -45496,7 +45451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1391</v>
       </c>
@@ -45505,7 +45460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1391</v>
       </c>
@@ -45749,14 +45704,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B2">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -45764,14 +45719,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B3">
         <f>ROW()-1</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="D3">
         <v>49</v>
@@ -45779,14 +45734,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B4">
         <f>ROW()-1</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="D4">
         <v>51</v>
@@ -45794,26 +45749,26 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B32" si="0">ROW()-1</f>
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="D6">
         <v>53</v>
@@ -45821,14 +45776,14 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="D7">
         <v>58</v>
@@ -45836,7 +45791,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -45845,7 +45800,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -45854,7 +45809,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -45863,7 +45818,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -45872,7 +45827,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -45881,7 +45836,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -45890,7 +45845,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -45899,7 +45854,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -45908,7 +45863,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -45917,7 +45872,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -45926,7 +45881,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -45935,7 +45890,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -45944,7 +45899,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -45953,7 +45908,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -45962,7 +45917,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -45971,7 +45926,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -45980,7 +45935,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -45989,7 +45944,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -45998,7 +45953,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -46007,7 +45962,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -46016,7 +45971,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -46025,7 +45980,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -46034,7 +45989,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -46043,7 +45998,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -46052,7 +46007,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -46066,10 +46021,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CD815C-832D-4B4E-B220-499964C0AB30}">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:AC74"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46077,7 +46032,7 @@
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1412</v>
       </c>
@@ -46102,8 +46057,14 @@
       <c r="H1">
         <v>13542</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>10281</v>
+      </c>
+      <c r="J1">
+        <v>11183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1421</v>
       </c>
@@ -46128,8 +46089,14 @@
       <c r="H2">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>70</v>
+      </c>
+      <c r="J2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1414</v>
       </c>
@@ -46154,15 +46121,21 @@
       <c r="H3">
         <v>272</v>
       </c>
-      <c r="N3">
+      <c r="I3">
+        <v>197</v>
+      </c>
+      <c r="J3">
+        <v>204</v>
+      </c>
+      <c r="X3">
         <f>500000-240000</f>
         <v>260000</v>
       </c>
-      <c r="O3">
+      <c r="Y3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1417</v>
       </c>
@@ -46187,8 +46160,14 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1418</v>
       </c>
@@ -46213,14 +46192,20 @@
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="N5">
-        <f>N3/O3</f>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <f>X3/Y3</f>
         <v>65000</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -46243,10 +46228,16 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -46263,8 +46254,14 @@
       <c r="H7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1419</v>
       </c>
@@ -46289,8 +46286,14 @@
       <c r="H8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1420</v>
       </c>
@@ -46315,10 +46318,16 @@
       <c r="H9">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>48</v>
+      </c>
+      <c r="J9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="D10">
         <v>253</v>
@@ -46336,13 +46345,19 @@
         <v>284</v>
       </c>
       <c r="I10">
+        <v>243</v>
+      </c>
+      <c r="J10">
+        <v>282</v>
+      </c>
+      <c r="S10">
         <v>20</v>
       </c>
-      <c r="J10">
+      <c r="T10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1413</v>
       </c>
@@ -46368,13 +46383,19 @@
         <v>126</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="T11">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1416</v>
       </c>
@@ -46400,13 +46421,19 @@
         <v>1950</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="T12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1415</v>
       </c>
@@ -46431,8 +46458,14 @@
       <c r="H13">
         <v>162</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>328</v>
+      </c>
+      <c r="J13">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1358</v>
       </c>
@@ -46461,301 +46494,309 @@
         <v>10470</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15" si="1">H1-SUM(H2:H13)</f>
+        <f t="shared" ref="H15:J15" si="1">H1-SUM(H2:H13)</f>
         <v>10607</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>9372</v>
+      </c>
       <c r="J15">
-        <f>+(MAX(0,MIN(1,($J$10-K15)/$J$11)))*$J$12</f>
+        <f t="shared" si="1"/>
+        <v>10227</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15:T35" si="2">+(MAX(0,MIN(1,($T$10-U15)/$T$11)))*$T$12</f>
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="U15">
         <v>200</v>
       </c>
-      <c r="N15">
-        <f>1/(1+O15)</f>
+      <c r="X15">
+        <f>1/(1+Y15)</f>
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="Y15">
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="Z15">
         <v>0</v>
       </c>
-      <c r="Q15">
-        <f>1/(1+P15)</f>
+      <c r="AA15">
+        <f>1/(1+Z15)</f>
         <v>1</v>
       </c>
-      <c r="R15">
-        <f>1/(EXP(Q15))</f>
+      <c r="AB15">
+        <f>1/(EXP(AA15))</f>
         <v>0.36787944117144233</v>
       </c>
-      <c r="S15" t="e">
-        <f>1/LOG(1+P15)</f>
+      <c r="AC15" t="e">
+        <f>1/LOG(1+Z15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J16">
-        <f t="shared" ref="J16:J35" si="2">+(MAX(0,MIN(1,($J$10-K16)/$J$11)))*$J$12</f>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="K16">
+      <c r="U16">
         <v>190</v>
       </c>
-      <c r="N16">
-        <f t="shared" ref="N16:N27" si="3">1/(1+O16)</f>
+      <c r="X16">
+        <f t="shared" ref="X16:X27" si="3">1/(1+Y16)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O16">
+      <c r="Y16">
         <v>5</v>
       </c>
-      <c r="P16">
+      <c r="Z16">
         <v>1</v>
       </c>
-      <c r="Q16">
-        <f t="shared" ref="Q16:Q74" si="4">1/(1+P16)</f>
+      <c r="AA16">
+        <f t="shared" ref="AA16:AA74" si="4">1/(1+Z16)</f>
         <v>0.5</v>
       </c>
-      <c r="S16">
-        <f t="shared" ref="S16:S74" si="5">1/LOG(1+P16)</f>
+      <c r="AC16">
+        <f t="shared" ref="AC16:AC74" si="5">1/LOG(1+Z16)</f>
         <v>3.3219280948873622</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="J17">
+    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="T17">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="K17">
+      <c r="U17">
         <v>180</v>
       </c>
-      <c r="N17">
+      <c r="X17">
         <f t="shared" si="3"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="O17">
+      <c r="Y17">
         <v>10</v>
       </c>
-      <c r="P17">
+      <c r="Z17">
         <v>2</v>
       </c>
-      <c r="Q17">
+      <c r="AA17">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S17">
+      <c r="AC17">
         <f t="shared" si="5"/>
         <v>2.0959032742893848</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>3500</v>
       </c>
       <c r="F18">
         <v>5000</v>
       </c>
-      <c r="J18">
+      <c r="T18">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="K18">
+      <c r="U18">
         <v>170</v>
       </c>
-      <c r="N18">
+      <c r="X18">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-      <c r="O18">
+      <c r="Y18">
         <v>15</v>
       </c>
-      <c r="P18">
+      <c r="Z18">
         <v>3</v>
       </c>
-      <c r="Q18">
+      <c r="AA18">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="S18">
+      <c r="AC18">
         <f t="shared" si="5"/>
         <v>1.6609640474436811</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E19">
-        <f>J10/E18</f>
+        <f>T10/E18</f>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="F19">
         <f>200/F18</f>
         <v>0.04</v>
       </c>
-      <c r="J19">
+      <c r="T19">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
-      <c r="K19">
+      <c r="U19">
         <v>160</v>
       </c>
-      <c r="N19">
+      <c r="X19">
         <f t="shared" si="3"/>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="O19">
+      <c r="Y19">
         <v>20</v>
       </c>
-      <c r="P19">
+      <c r="Z19">
         <v>4</v>
       </c>
-      <c r="Q19">
+      <c r="AA19">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="S19">
+      <c r="AC19">
         <f t="shared" si="5"/>
         <v>1.4306765580733929</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="J20">
+    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="T20">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="K20">
+      <c r="U20">
         <v>150</v>
       </c>
-      <c r="N20">
+      <c r="X20">
         <f t="shared" si="3"/>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="O20">
+      <c r="Y20">
         <v>25</v>
       </c>
-      <c r="P20">
+      <c r="Z20">
         <v>5</v>
       </c>
-      <c r="Q20">
+      <c r="AA20">
         <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="S20">
+      <c r="AC20">
         <f t="shared" si="5"/>
         <v>1.2850972089384687</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
       <c r="F21">
         <f>0.05*80</f>
         <v>4</v>
       </c>
-      <c r="J21">
+      <c r="T21">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="K21">
+      <c r="U21">
         <v>140</v>
       </c>
-      <c r="N21">
+      <c r="X21">
         <f t="shared" si="3"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="O21">
+      <c r="Y21">
         <v>30</v>
       </c>
-      <c r="P21">
+      <c r="Z21">
         <v>6</v>
       </c>
-      <c r="Q21">
+      <c r="AA21">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="S21">
+      <c r="AC21">
         <f t="shared" si="5"/>
         <v>1.1832946624549383</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="J22">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="T22">
         <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="K22">
+      <c r="U22">
         <v>130</v>
       </c>
-      <c r="N22">
+      <c r="X22">
         <f t="shared" si="3"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="O22">
+      <c r="Y22">
         <v>35</v>
       </c>
-      <c r="P22">
+      <c r="Z22">
         <v>7</v>
       </c>
-      <c r="Q22">
+      <c r="AA22">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="S22">
+      <c r="AC22">
         <f t="shared" si="5"/>
         <v>1.1073093649624541</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="J23">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="T23">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
-      <c r="K23">
+      <c r="U23">
         <v>120</v>
       </c>
-      <c r="N23">
+      <c r="X23">
         <f t="shared" si="3"/>
         <v>2.4390243902439025E-2</v>
       </c>
-      <c r="O23">
+      <c r="Y23">
         <v>40</v>
       </c>
-      <c r="P23">
+      <c r="Z23">
         <v>8</v>
       </c>
-      <c r="Q23">
+      <c r="AA23">
         <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="S23">
+      <c r="AC23">
         <f t="shared" si="5"/>
         <v>1.0479516371446924</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="J24">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="T24">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
-      <c r="K24">
+      <c r="U24">
         <v>110</v>
       </c>
-      <c r="N24">
+      <c r="X24">
         <f t="shared" si="3"/>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="O24">
+      <c r="Y24">
         <v>45</v>
       </c>
-      <c r="P24">
+      <c r="Z24">
         <v>9</v>
       </c>
-      <c r="Q24">
+      <c r="AA24">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="S24">
+      <c r="AC24">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>D25-E25</f>
         <v>394</v>
@@ -46766,64 +46807,64 @@
       <c r="E25">
         <v>8883</v>
       </c>
-      <c r="J25">
+      <c r="T25">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="K25">
+      <c r="U25">
         <v>100</v>
       </c>
-      <c r="N25">
+      <c r="X25">
         <f t="shared" si="3"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="O25">
+      <c r="Y25">
         <v>50</v>
       </c>
-      <c r="P25">
+      <c r="Z25">
         <v>10</v>
       </c>
-      <c r="Q25">
+      <c r="AA25">
         <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="S25">
+      <c r="AC25">
         <f t="shared" si="5"/>
         <v>0.96025256778912738</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C26">
         <f>C25/60</f>
         <v>6.5666666666666664</v>
       </c>
-      <c r="J26">
+      <c r="T26">
         <f t="shared" si="2"/>
         <v>0.22</v>
       </c>
-      <c r="K26">
+      <c r="U26">
         <v>90</v>
       </c>
-      <c r="N26">
+      <c r="X26">
         <f t="shared" si="3"/>
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="O26">
+      <c r="Y26">
         <v>55</v>
       </c>
-      <c r="P26">
+      <c r="Z26">
         <v>11</v>
       </c>
-      <c r="Q26">
+      <c r="AA26">
         <f t="shared" si="4"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="S26">
+      <c r="AC26">
         <f t="shared" si="5"/>
         <v>0.92662840802912672</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C27">
         <f>+C26*4</f>
         <v>26.266666666666666</v>
@@ -46832,703 +46873,703 @@
         <f>D25+C25*4</f>
         <v>10853</v>
       </c>
-      <c r="J27">
+      <c r="T27">
         <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
-      <c r="K27">
+      <c r="U27">
         <v>80</v>
       </c>
-      <c r="N27">
+      <c r="X27">
         <f t="shared" si="3"/>
         <v>1.6393442622950821E-2</v>
       </c>
-      <c r="O27">
+      <c r="Y27">
         <v>60</v>
       </c>
-      <c r="P27">
+      <c r="Z27">
         <v>12</v>
       </c>
-      <c r="Q27">
+      <c r="AA27">
         <f t="shared" si="4"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="S27">
+      <c r="AC27">
         <f t="shared" si="5"/>
         <v>0.89771171750262313</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D28">
         <f>D27/60</f>
         <v>180.88333333333333</v>
       </c>
-      <c r="J28">
+      <c r="T28">
         <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
-      <c r="K28">
+      <c r="U28">
         <v>70</v>
       </c>
-      <c r="P28">
+      <c r="Z28">
         <v>13</v>
       </c>
-      <c r="Q28">
+      <c r="AA28">
         <f t="shared" si="4"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="S28">
+      <c r="AC28">
         <f t="shared" si="5"/>
         <v>0.8725028695491559</v>
       </c>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D29">
         <f>D28/60</f>
         <v>3.0147222222222223</v>
       </c>
-      <c r="J29">
+      <c r="T29">
         <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="K29">
+      <c r="U29">
         <v>60</v>
       </c>
-      <c r="P29">
+      <c r="Z29">
         <v>14</v>
       </c>
-      <c r="Q29">
+      <c r="AA29">
         <f t="shared" si="4"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="S29">
+      <c r="AC29">
         <f t="shared" si="5"/>
         <v>0.85027415372760251</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="J30">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="T30">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="K30">
+      <c r="U30">
         <v>50</v>
       </c>
-      <c r="P30">
+      <c r="Z30">
         <v>15</v>
       </c>
-      <c r="Q30">
+      <c r="AA30">
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="S30">
+      <c r="AC30">
         <f t="shared" si="5"/>
         <v>0.83048202372184055</v>
       </c>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="J31">
+    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="T31">
         <f t="shared" si="2"/>
         <v>0.32</v>
       </c>
-      <c r="K31">
+      <c r="U31">
         <v>40</v>
       </c>
-      <c r="P31">
+      <c r="Z31">
         <v>16</v>
       </c>
-      <c r="Q31">
+      <c r="AA31">
         <f t="shared" si="4"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="S31">
+      <c r="AC31">
         <f t="shared" si="5"/>
         <v>0.81271150929195901</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="J32">
+    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="T32">
         <f t="shared" si="2"/>
         <v>0.34</v>
       </c>
-      <c r="K32">
+      <c r="U32">
         <v>30</v>
       </c>
-      <c r="P32">
+      <c r="Z32">
         <v>17</v>
       </c>
-      <c r="Q32">
+      <c r="AA32">
         <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="S32">
+      <c r="AC32">
         <f t="shared" si="5"/>
         <v>0.79663977019691223</v>
       </c>
     </row>
-    <row r="33" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J33">
+    <row r="33" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="T33">
         <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
-      <c r="K33">
+      <c r="U33">
         <v>20</v>
       </c>
-      <c r="P33">
+      <c r="Z33">
         <v>18</v>
       </c>
-      <c r="Q33">
+      <c r="AA33">
         <f t="shared" si="4"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="S33">
+      <c r="AC33">
         <f t="shared" si="5"/>
         <v>0.78201148309954072</v>
       </c>
     </row>
-    <row r="34" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J34">
+    <row r="34" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="T34">
         <f t="shared" si="2"/>
         <v>0.38</v>
       </c>
-      <c r="K34">
+      <c r="U34">
         <v>10</v>
       </c>
-      <c r="P34">
+      <c r="Z34">
         <v>19</v>
       </c>
-      <c r="Q34">
+      <c r="AA34">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="S34">
+      <c r="AC34">
         <f t="shared" si="5"/>
         <v>0.76862178684024074</v>
       </c>
     </row>
-    <row r="35" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J35">
+    <row r="35" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="T35">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="K35">
+      <c r="U35">
         <v>0</v>
       </c>
-      <c r="P35">
+      <c r="Z35">
         <v>20</v>
       </c>
-      <c r="Q35">
+      <c r="AA35">
         <f t="shared" si="4"/>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="S35">
+      <c r="AC35">
         <f t="shared" si="5"/>
         <v>0.75630419551640105</v>
       </c>
     </row>
-    <row r="36" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="P36">
+    <row r="36" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="Z36">
         <v>21</v>
       </c>
-      <c r="Q36">
+      <c r="AA36">
         <f t="shared" si="4"/>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="S36">
+      <c r="AC36">
         <f t="shared" si="5"/>
         <v>0.74492185977334702</v>
       </c>
     </row>
-    <row r="37" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="P37">
+    <row r="37" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="Z37">
         <v>22</v>
       </c>
-      <c r="Q37">
+      <c r="AA37">
         <f t="shared" si="4"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="S37">
+      <c r="AC37">
         <f t="shared" si="5"/>
         <v>0.73436113557355565</v>
       </c>
     </row>
-    <row r="38" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="P38">
+    <row r="38" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="Z38">
         <v>23</v>
       </c>
-      <c r="Q38">
+      <c r="AA38">
         <f t="shared" si="4"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="S38">
+      <c r="AC38">
         <f t="shared" si="5"/>
         <v>0.72452677516225394</v>
       </c>
     </row>
-    <row r="39" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="P39">
+    <row r="39" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="Z39">
         <v>24</v>
       </c>
-      <c r="Q39">
+      <c r="AA39">
         <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
-      <c r="S39">
+      <c r="AC39">
         <f t="shared" si="5"/>
         <v>0.71533827903669644</v>
       </c>
     </row>
-    <row r="40" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="P40">
+    <row r="40" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="Z40">
         <v>25</v>
       </c>
-      <c r="Q40">
+      <c r="AA40">
         <f t="shared" si="4"/>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="S40">
+      <c r="AC40">
         <f t="shared" si="5"/>
         <v>0.70672709237532838</v>
       </c>
     </row>
-    <row r="41" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="P41">
+    <row r="41" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="Z41">
         <v>26</v>
       </c>
-      <c r="Q41">
+      <c r="AA41">
         <f t="shared" si="4"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="S41">
+      <c r="AC41">
         <f t="shared" si="5"/>
         <v>0.6986344247631282</v>
       </c>
     </row>
-    <row r="42" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="P42">
+    <row r="42" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="Z42">
         <v>27</v>
       </c>
-      <c r="Q42">
+      <c r="AA42">
         <f t="shared" si="4"/>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="S42">
+      <c r="AC42">
         <f t="shared" si="5"/>
         <v>0.6910095361682882</v>
       </c>
     </row>
-    <row r="43" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="P43">
+    <row r="43" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="Z43">
         <v>28</v>
       </c>
-      <c r="Q43">
+      <c r="AA43">
         <f t="shared" si="4"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="S43">
+      <c r="AC43">
         <f t="shared" si="5"/>
         <v>0.68380837599388911</v>
       </c>
     </row>
-    <row r="44" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="P44">
+    <row r="44" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="Z44">
         <v>29</v>
       </c>
-      <c r="Q44">
+      <c r="AA44">
         <f t="shared" si="4"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="S44">
+      <c r="AC44">
         <f t="shared" si="5"/>
         <v>0.67699249252884552</v>
       </c>
     </row>
-    <row r="45" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="P45">
+    <row r="45" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="Z45">
         <v>30</v>
       </c>
-      <c r="Q45">
+      <c r="AA45">
         <f t="shared" si="4"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="S45">
+      <c r="AC45">
         <f t="shared" si="5"/>
         <v>0.67052815164442925</v>
       </c>
     </row>
-    <row r="46" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="P46">
+    <row r="46" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="Z46">
         <v>31</v>
       </c>
-      <c r="Q46">
+      <c r="AA46">
         <f t="shared" si="4"/>
         <v>3.125E-2</v>
       </c>
-      <c r="S46">
+      <c r="AC46">
         <f t="shared" si="5"/>
         <v>0.66438561897747239</v>
       </c>
     </row>
-    <row r="47" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="P47">
+    <row r="47" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="Z47">
         <v>32</v>
       </c>
-      <c r="Q47">
+      <c r="AA47">
         <f t="shared" si="4"/>
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="S47">
+      <c r="AC47">
         <f t="shared" si="5"/>
         <v>0.65853857099291147</v>
       </c>
     </row>
-    <row r="48" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="P48">
+    <row r="48" spans="20:29" x14ac:dyDescent="0.25">
+      <c r="Z48">
         <v>33</v>
       </c>
-      <c r="Q48">
+      <c r="AA48">
         <f t="shared" si="4"/>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="S48">
+      <c r="AC48">
         <f t="shared" si="5"/>
         <v>0.65296360849113078</v>
       </c>
     </row>
-    <row r="49" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P49">
+    <row r="49" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z49">
         <v>34</v>
       </c>
-      <c r="Q49">
+      <c r="AA49">
         <f t="shared" si="4"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="S49">
+      <c r="AC49">
         <f t="shared" si="5"/>
         <v>0.64763985218072906</v>
       </c>
     </row>
-    <row r="50" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P50">
+    <row r="50" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z50">
         <v>35</v>
       </c>
-      <c r="Q50">
+      <c r="AA50">
         <f t="shared" si="4"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="S50">
+      <c r="AC50">
         <f t="shared" si="5"/>
         <v>0.64254860446923434</v>
       </c>
     </row>
-    <row r="51" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P51">
+    <row r="51" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z51">
         <v>36</v>
       </c>
-      <c r="Q51">
+      <c r="AA51">
         <f t="shared" si="4"/>
         <v>2.7027027027027029E-2</v>
       </c>
-      <c r="S51">
+      <c r="AC51">
         <f t="shared" si="5"/>
         <v>0.63767306504840893</v>
       </c>
     </row>
-    <row r="52" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P52">
+    <row r="52" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z52">
         <v>37</v>
       </c>
-      <c r="Q52">
+      <c r="AA52">
         <f t="shared" si="4"/>
         <v>2.6315789473684209E-2</v>
       </c>
-      <c r="S52">
+      <c r="AC52">
         <f t="shared" si="5"/>
         <v>0.63299809046096744</v>
       </c>
     </row>
-    <row r="53" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P53">
+    <row r="53" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z53">
         <v>38</v>
       </c>
-      <c r="Q53">
+      <c r="AA53">
         <f t="shared" si="4"/>
         <v>2.564102564102564E-2</v>
       </c>
-      <c r="S53">
+      <c r="AC53">
         <f t="shared" si="5"/>
         <v>0.62850998984188011</v>
       </c>
     </row>
-    <row r="54" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P54">
+    <row r="54" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z54">
         <v>39</v>
       </c>
-      <c r="Q54">
+      <c r="AA54">
         <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="S54">
+      <c r="AC54">
         <f t="shared" si="5"/>
         <v>0.62419635058178491</v>
       </c>
     </row>
-    <row r="55" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P55">
+    <row r="55" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z55">
         <v>40</v>
       </c>
-      <c r="Q55">
+      <c r="AA55">
         <f t="shared" si="4"/>
         <v>2.4390243902439025E-2</v>
       </c>
-      <c r="S55">
+      <c r="AC55">
         <f t="shared" si="5"/>
         <v>0.62004588887311562</v>
       </c>
     </row>
-    <row r="56" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P56">
+    <row r="56" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z56">
         <v>41</v>
       </c>
-      <c r="Q56">
+      <c r="AA56">
         <f t="shared" si="4"/>
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="S56">
+      <c r="AC56">
         <f t="shared" si="5"/>
         <v>0.61604832105293827</v>
       </c>
     </row>
-    <row r="57" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P57">
+    <row r="57" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z57">
         <v>42</v>
       </c>
-      <c r="Q57">
+      <c r="AA57">
         <f t="shared" si="4"/>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="S57">
+      <c r="AC57">
         <f t="shared" si="5"/>
         <v>0.61219425241069658</v>
       </c>
     </row>
-    <row r="58" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P58">
+    <row r="58" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z58">
         <v>43</v>
       </c>
-      <c r="Q58">
+      <c r="AA58">
         <f t="shared" si="4"/>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="S58">
+      <c r="AC58">
         <f t="shared" si="5"/>
         <v>0.60847508072947221</v>
       </c>
     </row>
-    <row r="59" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P59">
+    <row r="59" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z59">
         <v>44</v>
       </c>
-      <c r="Q59">
+      <c r="AA59">
         <f t="shared" si="4"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="S59">
+      <c r="AC59">
         <f t="shared" si="5"/>
         <v>0.60488291231014157</v>
       </c>
     </row>
-    <row r="60" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P60">
+    <row r="60" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z60">
         <v>45</v>
       </c>
-      <c r="Q60">
+      <c r="AA60">
         <f t="shared" si="4"/>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="S60">
+      <c r="AC60">
         <f t="shared" si="5"/>
         <v>0.60141048861497992</v>
       </c>
     </row>
-    <row r="61" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P61">
+    <row r="61" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z61">
         <v>46</v>
       </c>
-      <c r="Q61">
+      <c r="AA61">
         <f t="shared" si="4"/>
         <v>2.1276595744680851E-2</v>
       </c>
-      <c r="S61">
+      <c r="AC61">
         <f t="shared" si="5"/>
         <v>0.59805112198071142</v>
       </c>
     </row>
-    <row r="62" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P62">
+    <row r="62" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z62">
         <v>47</v>
       </c>
-      <c r="Q62">
+      <c r="AA62">
         <f t="shared" si="4"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="S62">
+      <c r="AC62">
         <f t="shared" si="5"/>
         <v>0.59479863910606734</v>
       </c>
     </row>
-    <row r="63" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P63">
+    <row r="63" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z63">
         <v>48</v>
       </c>
-      <c r="Q63">
+      <c r="AA63">
         <f t="shared" si="4"/>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="S63">
+      <c r="AC63">
         <f t="shared" si="5"/>
         <v>0.59164733122746915</v>
       </c>
     </row>
-    <row r="64" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P64">
+    <row r="64" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z64">
         <v>49</v>
       </c>
-      <c r="Q64">
+      <c r="AA64">
         <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="S64">
+      <c r="AC64">
         <f t="shared" si="5"/>
         <v>0.588591910067779</v>
       </c>
     </row>
-    <row r="65" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P65">
+    <row r="65" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z65">
         <v>50</v>
       </c>
-      <c r="Q65">
+      <c r="AA65">
         <f t="shared" si="4"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="S65">
+      <c r="AC65">
         <f t="shared" si="5"/>
         <v>0.58562746878441962</v>
       </c>
     </row>
-    <row r="66" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P66">
+    <row r="66" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z66">
         <v>51</v>
       </c>
-      <c r="Q66">
+      <c r="AA66">
         <f t="shared" si="4"/>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="S66">
+      <c r="AC66">
         <f t="shared" si="5"/>
         <v>0.58274944726029654</v>
       </c>
     </row>
-    <row r="67" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P67">
+    <row r="67" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z67">
         <v>52</v>
       </c>
-      <c r="Q67">
+      <c r="AA67">
         <f t="shared" si="4"/>
         <v>1.8867924528301886E-2</v>
       </c>
-      <c r="S67">
+      <c r="AC67">
         <f t="shared" si="5"/>
         <v>0.579953601178403</v>
       </c>
     </row>
-    <row r="68" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P68">
+    <row r="68" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z68">
         <v>53</v>
       </c>
-      <c r="Q68">
+      <c r="AA68">
         <f t="shared" si="4"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="S68">
+      <c r="AC68">
         <f t="shared" si="5"/>
         <v>0.57723597440237195</v>
       </c>
     </row>
-    <row r="69" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P69">
+    <row r="69" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z69">
         <v>54</v>
       </c>
-      <c r="Q69">
+      <c r="AA69">
         <f t="shared" si="4"/>
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="S69">
+      <c r="AC69">
         <f t="shared" si="5"/>
         <v>0.57459287425347172</v>
       </c>
     </row>
-    <row r="70" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P70">
+    <row r="70" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z70">
         <v>55</v>
       </c>
-      <c r="Q70">
+      <c r="AA70">
         <f t="shared" si="4"/>
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="S70">
+      <c r="AC70">
         <f t="shared" si="5"/>
         <v>0.57202084933193131</v>
       </c>
     </row>
-    <row r="71" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P71">
+    <row r="71" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z71">
         <v>56</v>
       </c>
-      <c r="Q71">
+      <c r="AA71">
         <f t="shared" si="4"/>
         <v>1.7543859649122806E-2</v>
       </c>
-      <c r="S71">
+      <c r="AC71">
         <f t="shared" si="5"/>
         <v>0.56951666957894043</v>
       </c>
     </row>
-    <row r="72" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P72">
+    <row r="72" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z72">
         <v>57</v>
       </c>
-      <c r="Q72">
+      <c r="AA72">
         <f t="shared" si="4"/>
         <v>1.7241379310344827E-2</v>
       </c>
-      <c r="S72">
+      <c r="AC72">
         <f t="shared" si="5"/>
         <v>0.567077308316706</v>
       </c>
     </row>
-    <row r="73" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P73">
+    <row r="73" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z73">
         <v>58</v>
       </c>
-      <c r="Q73">
+      <c r="AA73">
         <f t="shared" si="4"/>
         <v>1.6949152542372881E-2</v>
       </c>
-      <c r="S73">
+      <c r="AC73">
         <f t="shared" si="5"/>
         <v>0.56469992603881181</v>
       </c>
     </row>
-    <row r="74" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P74">
+    <row r="74" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z74">
         <v>59</v>
       </c>
-      <c r="Q74">
+      <c r="AA74">
         <f t="shared" si="4"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="S74">
+      <c r="AC74">
         <f t="shared" si="5"/>
         <v>0.56238185575284771</v>
       </c>

--- a/Writings/Some calculations.xlsx
+++ b/Writings/Some calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krist\Desktop\Kristian\Privat\Ansøgninger\Udveksling\University College London\Being there\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390D5011-A5A6-4014-A44D-091E77E16B1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1431E2-C337-452A-B363-82D2EFF48D8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5655" yWindow="2010" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="7" xr2:uid="{5B17B8CB-38FB-437D-A3FF-95F205F5FE9A}"/>
   </bookViews>
@@ -46024,7 +46024,7 @@
   <dimension ref="A1:AC74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46063,6 +46063,9 @@
       <c r="J1">
         <v>11183</v>
       </c>
+      <c r="K1">
+        <v>11612</v>
+      </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -46095,6 +46098,9 @@
       <c r="J2">
         <v>70</v>
       </c>
+      <c r="K2">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -46127,6 +46133,9 @@
       <c r="J3">
         <v>204</v>
       </c>
+      <c r="K3">
+        <v>206</v>
+      </c>
       <c r="X3">
         <f>500000-240000</f>
         <v>260000</v>
@@ -46166,6 +46175,9 @@
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -46198,6 +46210,9 @@
       <c r="J5">
         <v>3</v>
       </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
       <c r="X5">
         <f>X3/Y3</f>
         <v>65000</v>
@@ -46234,6 +46249,9 @@
       <c r="J6">
         <v>1</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -46260,6 +46278,9 @@
       <c r="J7">
         <v>15</v>
       </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -46292,6 +46313,9 @@
       <c r="J8">
         <v>3</v>
       </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -46324,6 +46348,9 @@
       <c r="J9">
         <v>48</v>
       </c>
+      <c r="K9">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -46350,6 +46377,9 @@
       <c r="J10">
         <v>282</v>
       </c>
+      <c r="K10">
+        <v>367</v>
+      </c>
       <c r="S10">
         <v>20</v>
       </c>
@@ -46388,6 +46418,9 @@
       <c r="J11">
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
       <c r="S11">
         <v>1</v>
       </c>
@@ -46426,6 +46459,9 @@
       <c r="J12">
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
       <c r="S12">
         <v>1</v>
       </c>
@@ -46464,6 +46500,9 @@
       <c r="J13">
         <v>329</v>
       </c>
+      <c r="K13">
+        <v>329</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -46505,8 +46544,12 @@
         <f t="shared" si="1"/>
         <v>10227</v>
       </c>
+      <c r="K15">
+        <f t="shared" ref="K15" si="2">K1-SUM(K2:K13)</f>
+        <v>10569</v>
+      </c>
       <c r="T15">
-        <f t="shared" ref="T15:T35" si="2">+(MAX(0,MIN(1,($T$10-U15)/$T$11)))*$T$12</f>
+        <f t="shared" ref="T15:T35" si="3">+(MAX(0,MIN(1,($T$10-U15)/$T$11)))*$T$12</f>
         <v>0</v>
       </c>
       <c r="U15">
@@ -46537,14 +46580,14 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="T16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="U16">
         <v>190</v>
       </c>
       <c r="X16">
-        <f t="shared" ref="X16:X27" si="3">1/(1+Y16)</f>
+        <f t="shared" ref="X16:X27" si="4">1/(1+Y16)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="Y16">
@@ -46554,24 +46597,24 @@
         <v>1</v>
       </c>
       <c r="AA16">
-        <f t="shared" ref="AA16:AA74" si="4">1/(1+Z16)</f>
+        <f t="shared" ref="AA16:AA74" si="5">1/(1+Z16)</f>
         <v>0.5</v>
       </c>
       <c r="AC16">
-        <f t="shared" ref="AC16:AC74" si="5">1/LOG(1+Z16)</f>
+        <f t="shared" ref="AC16:AC74" si="6">1/LOG(1+Z16)</f>
         <v>3.3219280948873622</v>
       </c>
     </row>
     <row r="17" spans="3:29" x14ac:dyDescent="0.25">
       <c r="T17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
       <c r="U17">
         <v>180</v>
       </c>
       <c r="X17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="Y17">
@@ -46581,11 +46624,11 @@
         <v>2</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0959032742893848</v>
       </c>
     </row>
@@ -46597,14 +46640,14 @@
         <v>5000</v>
       </c>
       <c r="T18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="U18">
         <v>170</v>
       </c>
       <c r="X18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
       <c r="Y18">
@@ -46614,11 +46657,11 @@
         <v>3</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6609640474436811</v>
       </c>
     </row>
@@ -46632,14 +46675,14 @@
         <v>0.04</v>
       </c>
       <c r="T19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
       <c r="U19">
         <v>160</v>
       </c>
       <c r="X19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="Y19">
@@ -46649,24 +46692,24 @@
         <v>4</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4306765580733929</v>
       </c>
     </row>
     <row r="20" spans="3:29" x14ac:dyDescent="0.25">
       <c r="T20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="U20">
         <v>150</v>
       </c>
       <c r="X20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="Y20">
@@ -46676,11 +46719,11 @@
         <v>5</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2850972089384687</v>
       </c>
     </row>
@@ -46690,14 +46733,14 @@
         <v>4</v>
       </c>
       <c r="T21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="U21">
         <v>140</v>
       </c>
       <c r="X21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="Y21">
@@ -46707,24 +46750,24 @@
         <v>6</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1832946624549383</v>
       </c>
     </row>
     <row r="22" spans="3:29" x14ac:dyDescent="0.25">
       <c r="T22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="U22">
         <v>130</v>
       </c>
       <c r="X22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="Y22">
@@ -46734,24 +46777,24 @@
         <v>7</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1073093649624541</v>
       </c>
     </row>
     <row r="23" spans="3:29" x14ac:dyDescent="0.25">
       <c r="T23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
       <c r="U23">
         <v>120</v>
       </c>
       <c r="X23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="Y23">
@@ -46761,24 +46804,24 @@
         <v>8</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0479516371446924</v>
       </c>
     </row>
     <row r="24" spans="3:29" x14ac:dyDescent="0.25">
       <c r="T24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18</v>
       </c>
       <c r="U24">
         <v>110</v>
       </c>
       <c r="X24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="Y24">
@@ -46788,11 +46831,11 @@
         <v>9</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -46808,14 +46851,14 @@
         <v>8883</v>
       </c>
       <c r="T25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="U25">
         <v>100</v>
       </c>
       <c r="X25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="Y25">
@@ -46825,11 +46868,11 @@
         <v>10</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96025256778912738</v>
       </c>
     </row>
@@ -46839,14 +46882,14 @@
         <v>6.5666666666666664</v>
       </c>
       <c r="T26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22</v>
       </c>
       <c r="U26">
         <v>90</v>
       </c>
       <c r="X26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="Y26">
@@ -46856,11 +46899,11 @@
         <v>11</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92662840802912672</v>
       </c>
     </row>
@@ -46874,14 +46917,14 @@
         <v>10853</v>
       </c>
       <c r="T27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
       <c r="U27">
         <v>80</v>
       </c>
       <c r="X27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6393442622950821E-2</v>
       </c>
       <c r="Y27">
@@ -46891,11 +46934,11 @@
         <v>12</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.89771171750262313</v>
       </c>
     </row>
@@ -46905,7 +46948,7 @@
         <v>180.88333333333333</v>
       </c>
       <c r="T28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26</v>
       </c>
       <c r="U28">
@@ -46915,11 +46958,11 @@
         <v>13</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8725028695491559</v>
       </c>
     </row>
@@ -46929,7 +46972,7 @@
         <v>3.0147222222222223</v>
       </c>
       <c r="T29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="U29">
@@ -46939,17 +46982,17 @@
         <v>14</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.85027415372760251</v>
       </c>
     </row>
     <row r="30" spans="3:29" x14ac:dyDescent="0.25">
       <c r="T30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="U30">
@@ -46959,17 +47002,17 @@
         <v>15</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.83048202372184055</v>
       </c>
     </row>
     <row r="31" spans="3:29" x14ac:dyDescent="0.25">
       <c r="T31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32</v>
       </c>
       <c r="U31">
@@ -46979,17 +47022,17 @@
         <v>16</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.81271150929195901</v>
       </c>
     </row>
     <row r="32" spans="3:29" x14ac:dyDescent="0.25">
       <c r="T32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
       <c r="U32">
@@ -46999,17 +47042,17 @@
         <v>17</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.79663977019691223</v>
       </c>
     </row>
     <row r="33" spans="20:29" x14ac:dyDescent="0.25">
       <c r="T33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36</v>
       </c>
       <c r="U33">
@@ -47019,17 +47062,17 @@
         <v>18</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.78201148309954072</v>
       </c>
     </row>
     <row r="34" spans="20:29" x14ac:dyDescent="0.25">
       <c r="T34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38</v>
       </c>
       <c r="U34">
@@ -47039,17 +47082,17 @@
         <v>19</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.76862178684024074</v>
       </c>
     </row>
     <row r="35" spans="20:29" x14ac:dyDescent="0.25">
       <c r="T35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="U35">
@@ -47059,11 +47102,11 @@
         <v>20</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.75630419551640105</v>
       </c>
     </row>
@@ -47072,11 +47115,11 @@
         <v>21</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.74492185977334702</v>
       </c>
     </row>
@@ -47085,11 +47128,11 @@
         <v>22</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.73436113557355565</v>
       </c>
     </row>
@@ -47098,11 +47141,11 @@
         <v>23</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.72452677516225394</v>
       </c>
     </row>
@@ -47111,11 +47154,11 @@
         <v>24</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.71533827903669644</v>
       </c>
     </row>
@@ -47124,11 +47167,11 @@
         <v>25</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.70672709237532838</v>
       </c>
     </row>
@@ -47137,11 +47180,11 @@
         <v>26</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6986344247631282</v>
       </c>
     </row>
@@ -47150,11 +47193,11 @@
         <v>27</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6910095361682882</v>
       </c>
     </row>
@@ -47163,11 +47206,11 @@
         <v>28</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.68380837599388911</v>
       </c>
     </row>
@@ -47176,11 +47219,11 @@
         <v>29</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67699249252884552</v>
       </c>
     </row>
@@ -47189,11 +47232,11 @@
         <v>30</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67052815164442925</v>
       </c>
     </row>
@@ -47202,11 +47245,11 @@
         <v>31</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.125E-2</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.66438561897747239</v>
       </c>
     </row>
@@ -47215,11 +47258,11 @@
         <v>32</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.65853857099291147</v>
       </c>
     </row>
@@ -47228,11 +47271,11 @@
         <v>33</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.65296360849113078</v>
       </c>
     </row>
@@ -47241,11 +47284,11 @@
         <v>34</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.64763985218072906</v>
       </c>
     </row>
@@ -47254,11 +47297,11 @@
         <v>35</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.64254860446923434</v>
       </c>
     </row>
@@ -47267,11 +47310,11 @@
         <v>36</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7027027027027029E-2</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.63767306504840893</v>
       </c>
     </row>
@@ -47280,11 +47323,11 @@
         <v>37</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6315789473684209E-2</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.63299809046096744</v>
       </c>
     </row>
@@ -47293,11 +47336,11 @@
         <v>38</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.564102564102564E-2</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.62850998984188011</v>
       </c>
     </row>
@@ -47306,11 +47349,11 @@
         <v>39</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.62419635058178491</v>
       </c>
     </row>
@@ -47319,11 +47362,11 @@
         <v>40</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="AC55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.62004588887311562</v>
       </c>
     </row>
@@ -47332,11 +47375,11 @@
         <v>41</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3809523809523808E-2</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.61604832105293827</v>
       </c>
     </row>
@@ -47345,11 +47388,11 @@
         <v>42</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3255813953488372E-2</v>
       </c>
       <c r="AC57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.61219425241069658</v>
       </c>
     </row>
@@ -47358,11 +47401,11 @@
         <v>43</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="AC58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.60847508072947221</v>
       </c>
     </row>
@@ -47371,11 +47414,11 @@
         <v>44</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.60488291231014157</v>
       </c>
     </row>
@@ -47384,11 +47427,11 @@
         <v>45</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="AC60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.60141048861497992</v>
       </c>
     </row>
@@ -47397,11 +47440,11 @@
         <v>46</v>
       </c>
       <c r="AA61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="AC61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.59805112198071142</v>
       </c>
     </row>
@@ -47410,11 +47453,11 @@
         <v>47</v>
       </c>
       <c r="AA62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="AC62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.59479863910606734</v>
       </c>
     </row>
@@ -47423,11 +47466,11 @@
         <v>48</v>
       </c>
       <c r="AA63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0408163265306121E-2</v>
       </c>
       <c r="AC63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.59164733122746915</v>
       </c>
     </row>
@@ -47436,11 +47479,11 @@
         <v>49</v>
       </c>
       <c r="AA64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="AC64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.588591910067779</v>
       </c>
     </row>
@@ -47449,11 +47492,11 @@
         <v>50</v>
       </c>
       <c r="AA65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="AC65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.58562746878441962</v>
       </c>
     </row>
@@ -47462,11 +47505,11 @@
         <v>51</v>
       </c>
       <c r="AA66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9230769230769232E-2</v>
       </c>
       <c r="AC66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.58274944726029654</v>
       </c>
     </row>
@@ -47475,11 +47518,11 @@
         <v>52</v>
       </c>
       <c r="AA67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8867924528301886E-2</v>
       </c>
       <c r="AC67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.579953601178403</v>
       </c>
     </row>
@@ -47488,11 +47531,11 @@
         <v>53</v>
       </c>
       <c r="AA68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="AC68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57723597440237195</v>
       </c>
     </row>
@@ -47501,11 +47544,11 @@
         <v>54</v>
       </c>
       <c r="AA69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8181818181818181E-2</v>
       </c>
       <c r="AC69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57459287425347172</v>
       </c>
     </row>
@@ -47514,11 +47557,11 @@
         <v>55</v>
       </c>
       <c r="AA70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="AC70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57202084933193131</v>
       </c>
     </row>
@@ -47527,11 +47570,11 @@
         <v>56</v>
       </c>
       <c r="AA71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="AC71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56951666957894043</v>
       </c>
     </row>
@@ -47540,11 +47583,11 @@
         <v>57</v>
       </c>
       <c r="AA72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7241379310344827E-2</v>
       </c>
       <c r="AC72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.567077308316706</v>
       </c>
     </row>
@@ -47553,11 +47596,11 @@
         <v>58</v>
       </c>
       <c r="AA73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6949152542372881E-2</v>
       </c>
       <c r="AC73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56469992603881181</v>
       </c>
     </row>
@@ -47566,11 +47609,11 @@
         <v>59</v>
       </c>
       <c r="AA74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="AC74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56238185575284771</v>
       </c>
     </row>

--- a/Writings/Some calculations.xlsx
+++ b/Writings/Some calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krist\Desktop\Kristian\Privat\Ansøgninger\Udveksling\University College London\Being there\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1431E2-C337-452A-B363-82D2EFF48D8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFD18D4-789F-447C-8ABC-11C8330B08C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="2010" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="7" xr2:uid="{5B17B8CB-38FB-437D-A3FF-95F205F5FE9A}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{5B17B8CB-38FB-437D-A3FF-95F205F5FE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor clouds" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="1450">
   <si>
     <t>Inner London</t>
   </si>
@@ -4476,6 +4476,9 @@
   </si>
   <si>
     <t>The curriculum of this study</t>
+  </si>
+  <si>
+    <t>Area Occupied</t>
   </si>
 </sst>
 </file>
@@ -4835,7 +4838,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5073,6 +5076,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7456,10 +7465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237E497A-D080-4E5B-8E48-E3127795E7D0}">
-  <dimension ref="C3:AG33"/>
+  <dimension ref="C3:AG34"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24"/>
+    <sheetView tabSelected="1" topLeftCell="Y3" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8142,7 +8151,7 @@
         <v>-0.1907190105688934</v>
       </c>
     </row>
-    <row r="17" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L17">
         <v>40</v>
       </c>
@@ -8204,7 +8213,7 @@
         <v>0.6185619788622132</v>
       </c>
     </row>
-    <row r="18" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:32" x14ac:dyDescent="0.25">
       <c r="V18" s="32">
         <v>90</v>
       </c>
@@ -8239,12 +8248,12 @@
         <v>1.4278429682933198</v>
       </c>
     </row>
-    <row r="20" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:32" x14ac:dyDescent="0.25">
       <c r="V20" s="39" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="12:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V21" s="84" t="s">
         <v>114</v>
       </c>
@@ -8258,7 +8267,7 @@
       <c r="AD21" s="85"/>
       <c r="AE21" s="86"/>
     </row>
-    <row r="22" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:32" x14ac:dyDescent="0.25">
       <c r="V22" s="87"/>
       <c r="W22" s="88"/>
       <c r="X22" s="88"/>
@@ -8270,7 +8279,7 @@
       <c r="AD22" s="88"/>
       <c r="AE22" s="89"/>
     </row>
-    <row r="23" spans="12:31" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V23" s="26" t="s">
         <v>113</v>
       </c>
@@ -8278,69 +8287,74 @@
         <v>10</v>
       </c>
       <c r="X23" s="24" t="s">
+        <v>1449</v>
+      </c>
+      <c r="Y23" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="Y23" s="24" t="s">
+      <c r="Z23" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="Z23" s="24" t="s">
+      <c r="AA23" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="AA23" s="24" t="s">
+      <c r="AB23" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="AB23" s="25" t="s">
+      <c r="AC23" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AC23" s="25" t="s">
+      <c r="AD23" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="AD23" s="25" t="s">
+      <c r="AE23" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="AE23" s="27" t="s">
+      <c r="AF23" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="12:31" x14ac:dyDescent="0.25">
-      <c r="V24" s="28">
+    <row r="24" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="V24" s="100"/>
+      <c r="W24" s="101">
         <v>10</v>
       </c>
-      <c r="W24" s="29">
-        <v>10</v>
-      </c>
       <c r="X24" s="29">
+        <f>PI()*(W24^2)*Y24</f>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="Y24" s="101">
         <v>1</v>
       </c>
-      <c r="Y24" s="29">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="36">
+      <c r="Z24" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="36">
         <f>V24/(PI()*W24^2)</f>
-        <v>3.1830988618379068E-2</v>
-      </c>
-      <c r="AA24" s="34">
-        <f>(V24+Y24+1)/$N$12</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="AB24" s="30">
-        <f>(Z24/$T$5)-1</f>
-        <v>0.9452127033173563</v>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="34">
+        <f>(V24+Z24+1)/($N$12-X24)</f>
+        <v>1.6431583467308499E-4</v>
       </c>
       <c r="AC24" s="30">
-        <f>(Z24/$T$9)-1</f>
-        <v>4.4955123122457827</v>
+        <f>(AA24/$T$5)-1</f>
+        <v>-1</v>
       </c>
       <c r="AD24" s="30">
-        <f>(AA24/$T$5)-1</f>
-        <v>-0.84722335153971629</v>
-      </c>
-      <c r="AE24" s="31">
         <f>(AA24/$T$9)-1</f>
-        <v>-0.5683834723034098</v>
-      </c>
-    </row>
-    <row r="25" spans="12:31" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="AE24" s="30">
+        <f>(AB24/$T$5)-1</f>
+        <v>-0.98995855099587682</v>
+      </c>
+      <c r="AF24" s="31">
+        <f>(AB24/$T$9)-1</f>
+        <v>-0.97163142799713442</v>
+      </c>
+    </row>
+    <row r="25" spans="12:32" x14ac:dyDescent="0.25">
       <c r="V25" s="28">
         <v>0</v>
       </c>
@@ -8348,162 +8362,226 @@
         <v>10</v>
       </c>
       <c r="X25" s="29">
+        <f>PI()*(W25^2)*Y25</f>
+        <v>628.31853071795865</v>
+      </c>
+      <c r="Y25" s="29">
         <v>2</v>
       </c>
-      <c r="Y25" s="29">
+      <c r="Z25" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="36">
+        <f>V25/(PI()*W25^2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="34">
+        <f t="shared" ref="AB25:AB29" si="17">(V25+Z25+1)/($N$12-X25)</f>
+        <v>1.7325973467562016E-4</v>
+      </c>
+      <c r="AC25" s="30">
+        <f>(AA25/$T$5)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AD25" s="30">
+        <f>(AA25/$T$9)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AE25" s="30">
+        <f>(AB25/$T$5)-1</f>
+        <v>-0.98941198336925629</v>
+      </c>
+      <c r="AF25" s="31">
+        <f>(AB25/$T$9)-1</f>
+        <v>-0.97008729397187055</v>
+      </c>
+    </row>
+    <row r="26" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="V26" s="28">
+        <v>0</v>
+      </c>
+      <c r="W26" s="29">
+        <v>10</v>
+      </c>
+      <c r="X26" s="29">
+        <f t="shared" ref="X26:X29" si="18">PI()*(W26^2)*Y26</f>
+        <v>628.31853071795865</v>
+      </c>
+      <c r="Y26" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="36">
+        <f>V26/(PI()*W26^2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="34">
+        <f t="shared" si="17"/>
+        <v>1.7325973467562016E-4</v>
+      </c>
+      <c r="AC26" s="30">
+        <f t="shared" ref="AC26:AC29" si="19">(AA26/$T$5)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AD26" s="30">
+        <f t="shared" ref="AD26:AD29" si="20">(AA26/$T$9)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AE26" s="30">
+        <f t="shared" ref="AE26:AE29" si="21">(AB26/$T$5)-1</f>
+        <v>-0.98941198336925629</v>
+      </c>
+      <c r="AF26" s="31">
+        <f t="shared" ref="AF26:AF29" si="22">(AB26/$T$9)-1</f>
+        <v>-0.97008729397187055</v>
+      </c>
+    </row>
+    <row r="27" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="V27" s="28">
+        <v>0</v>
+      </c>
+      <c r="W27" s="29">
+        <v>10</v>
+      </c>
+      <c r="X27" s="29">
+        <f t="shared" si="18"/>
+        <v>628.31853071795865</v>
+      </c>
+      <c r="Y27" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="29">
         <v>5</v>
       </c>
-      <c r="Z25" s="36">
-        <f t="shared" ref="Z25:Z28" si="17">V25/(PI()*W25^2)</f>
+      <c r="AA27" s="36">
+        <f>V27/(PI()*W27^2)</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="34">
-        <f t="shared" ref="AA25:AA28" si="18">(V25+Y25+1)/$N$12</f>
-        <v>9.3749999999999997E-4</v>
-      </c>
-      <c r="AB25" s="30">
-        <f t="shared" ref="AB25:AB28" si="19">(Z25/$T$5)-1</f>
+      <c r="AB27" s="34">
+        <f t="shared" si="17"/>
+        <v>1.0395584080537209E-3</v>
+      </c>
+      <c r="AC27" s="30">
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
-      <c r="AC25" s="30">
-        <f t="shared" ref="AC25:AC28" si="20">(Z25/$T$9)-1</f>
+      <c r="AD27" s="30">
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="AD25" s="30">
-        <f t="shared" ref="AD25:AD28" si="21">(AA25/$T$5)-1</f>
-        <v>-0.94270875682739363</v>
-      </c>
-      <c r="AE25" s="31">
-        <f t="shared" ref="AE25:AE28" si="22">(AA25/$T$9)-1</f>
-        <v>-0.8381438021137787</v>
-      </c>
-    </row>
-    <row r="26" spans="12:31" x14ac:dyDescent="0.25">
-      <c r="V26" s="28">
-        <v>30</v>
-      </c>
-      <c r="W26" s="29">
-        <v>20</v>
-      </c>
-      <c r="X26" s="29">
+      <c r="AE27" s="30">
+        <f t="shared" si="21"/>
+        <v>-0.93647190021553783</v>
+      </c>
+      <c r="AF27" s="31">
+        <f t="shared" si="22"/>
+        <v>-0.82052376383122316</v>
+      </c>
+    </row>
+    <row r="28" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="V28" s="28">
+        <v>0</v>
+      </c>
+      <c r="W28" s="29">
+        <v>10</v>
+      </c>
+      <c r="X28" s="29">
+        <f t="shared" si="18"/>
+        <v>628.31853071795865</v>
+      </c>
+      <c r="Y28" s="29">
         <v>2</v>
       </c>
-      <c r="Y26" s="29">
-        <v>20</v>
-      </c>
-      <c r="Z26" s="36">
+      <c r="Z28" s="29">
+        <v>10</v>
+      </c>
+      <c r="AA28" s="36">
+        <f>V28/(PI()*W28^2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="34">
         <f t="shared" si="17"/>
-        <v>2.3873241463784299E-2</v>
-      </c>
-      <c r="AA26" s="34">
+        <v>1.9058570814318215E-3</v>
+      </c>
+      <c r="AC28" s="30">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="AD28" s="30">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="AE28" s="30">
+        <f t="shared" si="21"/>
+        <v>-0.88353181706181927</v>
+      </c>
+      <c r="AF28" s="31">
+        <f t="shared" si="22"/>
+        <v>-0.67096023369057578</v>
+      </c>
+    </row>
+    <row r="29" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="V29" s="32">
+        <v>0</v>
+      </c>
+      <c r="W29" s="33">
+        <v>10</v>
+      </c>
+      <c r="X29" s="29">
         <f t="shared" si="18"/>
-        <v>7.9687500000000001E-3</v>
-      </c>
-      <c r="AB26" s="30">
+        <v>628.31853071795865</v>
+      </c>
+      <c r="Y29" s="33">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="33">
+        <v>15</v>
+      </c>
+      <c r="AA29" s="35">
+        <f>V29/(PI()*W29^2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="34">
+        <f t="shared" si="17"/>
+        <v>2.7721557548099226E-3</v>
+      </c>
+      <c r="AC29" s="37">
         <f t="shared" si="19"/>
-        <v>0.45890952748801705</v>
-      </c>
-      <c r="AC26" s="30">
+        <v>-1</v>
+      </c>
+      <c r="AD29" s="37">
         <f t="shared" si="20"/>
-        <v>3.1216342341843371</v>
-      </c>
-      <c r="AD26" s="30">
+        <v>-1</v>
+      </c>
+      <c r="AE29" s="37">
         <f t="shared" si="21"/>
-        <v>-0.51302443303284573</v>
-      </c>
-      <c r="AE26" s="31">
+        <v>-0.83059173390810082</v>
+      </c>
+      <c r="AF29" s="38">
         <f t="shared" si="22"/>
-        <v>0.37577768203288131</v>
-      </c>
-    </row>
-    <row r="27" spans="12:31" x14ac:dyDescent="0.25">
-      <c r="V27" s="28">
-        <v>60</v>
-      </c>
-      <c r="W27" s="29">
-        <v>20</v>
-      </c>
-      <c r="X27" s="29">
-        <v>3</v>
-      </c>
-      <c r="Y27" s="29">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="36">
-        <f t="shared" si="17"/>
-        <v>4.7746482927568598E-2</v>
-      </c>
-      <c r="AA27" s="34">
-        <f t="shared" si="18"/>
-        <v>1.03125E-2</v>
-      </c>
-      <c r="AB27" s="30">
-        <f t="shared" si="19"/>
-        <v>1.9178190549760341</v>
-      </c>
-      <c r="AC27" s="30">
-        <f t="shared" si="20"/>
-        <v>7.2432684683686741</v>
-      </c>
-      <c r="AD27" s="30">
-        <f t="shared" si="21"/>
-        <v>-0.36979632510132965</v>
-      </c>
-      <c r="AE27" s="31">
-        <f t="shared" si="22"/>
-        <v>0.78041817674843461</v>
-      </c>
-    </row>
-    <row r="28" spans="12:31" x14ac:dyDescent="0.25">
-      <c r="V28" s="32">
-        <v>90</v>
-      </c>
-      <c r="W28" s="33">
-        <v>20</v>
-      </c>
-      <c r="X28" s="33">
-        <v>3</v>
-      </c>
-      <c r="Y28" s="33">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="35">
-        <f t="shared" si="17"/>
-        <v>7.1619724391352904E-2</v>
-      </c>
-      <c r="AA28" s="34">
-        <f t="shared" si="18"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AB28" s="37">
-        <f t="shared" si="19"/>
-        <v>3.3767285824640521</v>
-      </c>
-      <c r="AC28" s="37">
-        <f t="shared" si="20"/>
-        <v>11.364902702553012</v>
-      </c>
-      <c r="AD28" s="37">
-        <f t="shared" si="21"/>
-        <v>-8.334010923829771E-2</v>
-      </c>
-      <c r="AE28" s="38">
-        <f t="shared" si="22"/>
-        <v>1.5896991661795412</v>
-      </c>
-    </row>
-    <row r="31" spans="12:31" x14ac:dyDescent="0.25">
-      <c r="Y31">
+        <v>-0.52139670354992851</v>
+      </c>
+    </row>
+    <row r="31" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="X31">
+        <f>PI()*W25^2</f>
+        <v>314.15926535897933</v>
+      </c>
+    </row>
+    <row r="32" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="Y32">
         <v>57.801801801801801</v>
-      </c>
-    </row>
-    <row r="32" spans="12:31" x14ac:dyDescent="0.25">
-      <c r="Y32">
-        <v>32.727514645667952</v>
       </c>
     </row>
     <row r="33" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y33">
+        <v>32.727514645667952</v>
+      </c>
+    </row>
+    <row r="34" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y34">
         <v>11.584357129889167</v>
       </c>
     </row>
@@ -46023,7 +46101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CD815C-832D-4B4E-B220-499964C0AB30}">
   <dimension ref="A1:AC74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
